--- a/Database/Table/all.xlsx
+++ b/Database/Table/all.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Patient/Desktop/Work/word2vec/MIMIC_III/SplitDataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Patient/Desktop/PredictionModel/Database/Table/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="-4940" windowWidth="24040" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="31580" yWindow="-5140" windowWidth="27860" windowHeight="21140" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Procedures" sheetId="3" r:id="rId2"/>
     <sheet name="Diagnoses" sheetId="2" r:id="rId3"/>
-    <sheet name="Medications" sheetId="4" r:id="rId4"/>
-    <sheet name="Medications2" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="Diagnoses_1" sheetId="9" r:id="rId4"/>
+    <sheet name="Medications" sheetId="4" r:id="rId5"/>
+    <sheet name="Medications2" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="239">
   <si>
     <t>ap chest</t>
   </si>
@@ -428,9 +429,6 @@
     <t>albuterol sulfate</t>
   </si>
   <si>
-    <t xml:space="preserve">alcium carbonate </t>
-  </si>
-  <si>
     <t>amiodarone</t>
   </si>
   <si>
@@ -563,9 +561,6 @@
     <t>potassium_chloride</t>
   </si>
   <si>
-    <t>alcium_carbonate</t>
-  </si>
-  <si>
     <t>docusate_sodium</t>
   </si>
   <si>
@@ -594,6 +589,165 @@
   </si>
   <si>
     <t>congestive_heart_failure</t>
+  </si>
+  <si>
+    <t>renal failure</t>
+  </si>
+  <si>
+    <t>renal_failure</t>
+  </si>
+  <si>
+    <t>heart failure</t>
+  </si>
+  <si>
+    <t>heart_failure</t>
+  </si>
+  <si>
+    <t>thrombocytopenia</t>
+  </si>
+  <si>
+    <t>gi bleed</t>
+  </si>
+  <si>
+    <t>delirium</t>
+  </si>
+  <si>
+    <t>septic shock</t>
+  </si>
+  <si>
+    <t>osteoarthritis</t>
+  </si>
+  <si>
+    <t>osteoporosis</t>
+  </si>
+  <si>
+    <t>pulmonary embolism</t>
+  </si>
+  <si>
+    <t>malnutrition</t>
+  </si>
+  <si>
+    <t>bacteremia</t>
+  </si>
+  <si>
+    <t>arthritis</t>
+  </si>
+  <si>
+    <t>pulmonary hypertension</t>
+  </si>
+  <si>
+    <t>diverticulosis</t>
+  </si>
+  <si>
+    <t>myocardial infarction</t>
+  </si>
+  <si>
+    <t>glaucoma</t>
+  </si>
+  <si>
+    <t>hyperkalemia</t>
+  </si>
+  <si>
+    <t>dysphagia</t>
+  </si>
+  <si>
+    <t>cirrhosis</t>
+  </si>
+  <si>
+    <t>hepatitis</t>
+  </si>
+  <si>
+    <t>cholangitis</t>
+  </si>
+  <si>
+    <t>pulmonary edema</t>
+  </si>
+  <si>
+    <t>urinary retention</t>
+  </si>
+  <si>
+    <t>pancreatitis</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>cellulitis</t>
+  </si>
+  <si>
+    <t>bradycardia</t>
+  </si>
+  <si>
+    <t>hematuria</t>
+  </si>
+  <si>
+    <t>sleep apnea</t>
+  </si>
+  <si>
+    <t>constipation</t>
+  </si>
+  <si>
+    <t>spinal stenosis</t>
+  </si>
+  <si>
+    <t>gi_bleed</t>
+  </si>
+  <si>
+    <t>septic_shock</t>
+  </si>
+  <si>
+    <t>pulmonary_embolism</t>
+  </si>
+  <si>
+    <t>pulmonary_hypertension</t>
+  </si>
+  <si>
+    <t>myocardial_infarction</t>
+  </si>
+  <si>
+    <t>pulmonary_edema</t>
+  </si>
+  <si>
+    <t>urinary_retention</t>
+  </si>
+  <si>
+    <t>sleep_apnea</t>
+  </si>
+  <si>
+    <t>spinal_stenosis</t>
+  </si>
+  <si>
+    <t>obstructive pulmonary</t>
+  </si>
+  <si>
+    <t>obstructive_pulmonary</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>conj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docusate_sodium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferrous_sulfate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">folic_acid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranitidine_hcl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thiamine_hcl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiotropium_bromide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium_carbonate </t>
   </si>
 </sst>
 </file>
@@ -951,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A65" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
@@ -981,7 +1135,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -992,7 +1146,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1003,18 +1157,18 @@
         <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1025,7 +1179,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1041,13 +1195,13 @@
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1058,7 +1212,7 @@
         <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1069,18 +1223,18 @@
         <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1146,7 +1300,7 @@
         <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1234,62 +1388,62 @@
         <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1305,13 +1459,13 @@
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1327,24 +1481,24 @@
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1355,29 +1509,29 @@
         <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1388,7 +1542,7 @@
         <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1688,84 +1842,84 @@
     </row>
     <row r="81" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1779,35 +1933,35 @@
     </row>
     <row r="94" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1822,19 +1976,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C35"/>
+      <selection activeCell="C2" sqref="C2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -1844,8 +2000,14 @@
       <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,9 +2017,14 @@
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1867,9 +2034,14 @@
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1879,9 +2051,14 @@
       <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1891,21 +2068,31 @@
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1915,9 +2102,14 @@
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1927,9 +2119,14 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1939,9 +2136,14 @@
       <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1951,9 +2153,14 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1963,9 +2170,14 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1975,9 +2187,14 @@
       <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1987,9 +2204,14 @@
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1999,9 +2221,14 @@
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2011,9 +2238,14 @@
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2023,9 +2255,14 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2035,9 +2272,14 @@
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -2047,9 +2289,14 @@
       <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2059,9 +2306,14 @@
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2073,7 +2325,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2085,7 +2337,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2097,7 +2349,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -2109,7 +2361,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2121,7 +2373,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -2133,7 +2385,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -2145,7 +2397,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2157,7 +2409,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2169,7 +2421,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -2181,7 +2433,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2445,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2457,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -2522,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C31"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2551,7 +2803,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2562,7 +2814,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2595,7 +2847,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2606,7 +2858,7 @@
         <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2628,7 +2880,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2661,7 +2913,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2683,7 +2935,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2716,7 +2968,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2848,7 +3100,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -2870,7 +3122,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2882,6 +3134,614 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B60">
+    <sortCondition ref="B15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
@@ -3296,18 +4156,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -3320,6 +4182,12 @@
       <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3331,7 +4199,12 @@
       <c r="C2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3341,240 +4214,300 @@
         <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -3592,121 +4525,121 @@
     </row>
     <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -3796,11 +4729,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:C97"/>
     </sheetView>
   </sheetViews>
@@ -3830,7 +4763,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -3842,7 +4775,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -3878,7 +4811,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -3890,7 +4823,7 @@
         <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -3914,7 +4847,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -3950,7 +4883,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -3974,7 +4907,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -4010,7 +4943,7 @@
         <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -4154,7 +5087,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -4178,7 +5111,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -4202,235 +5135,235 @@
         <v>131</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F52" s="1"/>
     </row>
@@ -4448,118 +5381,118 @@
     </row>
     <row r="54" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4608,13 +5541,13 @@
     </row>
     <row r="68" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -4941,12 +5874,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:C97"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4956,1069 +5889,1083 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>180</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Database/Table/all.xlsx
+++ b/Database/Table/all.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31580" yWindow="-5140" windowWidth="27860" windowHeight="21140" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="42040" yWindow="-2700" windowWidth="16020" windowHeight="16740" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Procedures" sheetId="3" r:id="rId2"/>
     <sheet name="Diagnoses" sheetId="2" r:id="rId3"/>
     <sheet name="Diagnoses_1" sheetId="9" r:id="rId4"/>
-    <sheet name="Medications" sheetId="4" r:id="rId5"/>
-    <sheet name="Medications2" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="High_diagnoses" sheetId="10" r:id="rId5"/>
+    <sheet name="Medications" sheetId="4" r:id="rId6"/>
+    <sheet name="Medications2" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="243">
   <si>
     <t>ap chest</t>
   </si>
@@ -748,6 +750,18 @@
   </si>
   <si>
     <t xml:space="preserve">calcium_carbonate </t>
+  </si>
+  <si>
+    <t>ckd</t>
+  </si>
+  <si>
+    <t>model_12</t>
+  </si>
+  <si>
+    <t>model_11</t>
+  </si>
+  <si>
+    <t>model_13</t>
   </si>
 </sst>
 </file>
@@ -1974,6 +1988,820 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E99"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F98"/>
@@ -3743,6 +4571,328 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
@@ -4156,7 +5306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
@@ -4729,12 +5879,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:C97"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4754,6 +5904,9 @@
       <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5874,12 +7027,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:B123"/>
+    <sheetView showRuler="0" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5888,7 +7041,7 @@
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>79</v>
       </c>
@@ -5896,8 +7049,11 @@
         <v>169</v>
       </c>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -5906,7 +7062,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -5915,7 +7071,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -5924,7 +7080,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>199</v>
       </c>
@@ -5933,7 +7089,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5942,7 +7098,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -5951,7 +7107,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -5960,7 +7116,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>198</v>
       </c>
@@ -5969,7 +7125,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>214</v>
       </c>
@@ -5978,7 +7134,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>213</v>
       </c>
@@ -5987,7 +7143,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>208</v>
       </c>
@@ -5996,7 +7152,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>206</v>
       </c>
@@ -6005,7 +7161,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>217</v>
       </c>
@@ -6014,7 +7170,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -6023,7 +7179,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
